--- a/biology/Botanique/Acroglochin/Acroglochin.xlsx
+++ b/biology/Botanique/Acroglochin/Acroglochin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acroglochin est un genre de plantes dicotylédones de la famille des Amaranthaceae (sous-famille des Betoideae), originaire d'Asie, qui comprend une ou deux espèces selon les auteurs.
 </t>
@@ -511,18 +523,55 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le genre fut décrit par le botaniste allemand, Heinrich Adolph Schrader, et publié dans la revue Mantissa 1: 69, 227. 1822[2]. L'espèce type est Acroglochin chenopodioides Schrad.
-Liste d'espèces
-Selon Catalogue of Life                                   (21 juin 2014)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre fut décrit par le botaniste allemand, Heinrich Adolph Schrader, et publié dans la revue Mantissa 1: 69, 227. 1822. L'espèce type est Acroglochin chenopodioides Schrad.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Acroglochin</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acroglochin</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (21 juin 2014) :
 Acroglochin persicarioides
-Selon NCBI  (21 juin 2014)[4] :
+Selon NCBI  (21 juin 2014) :
 Acroglochin chenopodioides
-Selon The Plant List            (21 juin 2014)[5] :
+Selon The Plant List            (21 juin 2014) :
 Acroglochin obtusifolia C.H.Blom
 Acroglochin persicarioides (Poir.) Moq.
-Selon Tropicos                                           (21 juin 2014)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (21 juin 2014) (Attention liste brute contenant possiblement des synonymes) :
 Acroglochin chenopodioides Schrad.
 Acroglochin obtusifolia C.H. Blom
 Acroglochin persicarioides (Poir.) Moq.
@@ -530,68 +579,72 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Acroglochin</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Acroglochin</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Caractéristiques générales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit de plantes herbacées annuelles, glabres, au port dressé, pouvant atteindre 30 à 80 cm de haut.
 Les feuilles alternes, de 1,5 à 7 cm de long sur 0,4 à 5 cm de large, ont un limbe ovale, au bords irrégulièrement dentelé. 
 Les fleurs, sessiles, bisexuées, sont regroupées en cymes composées, elles ont un périanthe herbacé, profondément divisé en cinq lobes;
-Les fruits sont des pyxides subglobuleuses de 1,5 mm de diamètre, à déhiscence circulaire[6].
+Les fruits sont des pyxides subglobuleuses de 1,5 mm de diamètre, à déhiscence circulaire.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Acroglochin</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Acroglochin</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'aire de répartition de ce genre s'étend dans le sud de l'Asie et les régions himalayennes : Bhoutan, Inde, Cachemire, Népal, Pakistan, Chine (Gansu, Guizhou, Hubei, Hunan, Shaanxi, Sichuan, Yunnan).
-Ces plantes se rencontrent à l'orée des forêts, le long des cours d'eau, sur les pentes ouvertes, au bord des routes, dans les champs et les friches[6]. 
+Ces plantes se rencontrent à l'orée des forêts, le long des cours d'eau, sur les pentes ouvertes, au bord des routes, dans les champs et les friches. 
 </t>
         </is>
       </c>
